--- a/01.분석/요구사항명세서.xlsx
+++ b/01.분석/요구사항명세서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -4869,15 +4869,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4895,6 +4886,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5485,7 +5485,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5589,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5805,7 +5805,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5924,8 +5924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6191,6 +6191,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C18:C19"/>
@@ -6201,16 +6211,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,7 +6224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -6238,12 +6238,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -6260,10 +6260,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -6272,16 +6272,16 @@
       <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="21" t="s">
         <v>77</v>
       </c>
@@ -6290,26 +6290,26 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="54">
+      <c r="A8" s="51">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -6320,8 +6320,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="21" t="s">
         <v>83</v>
       </c>
@@ -6330,8 +6330,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="21" t="s">
         <v>86</v>
       </c>
@@ -6340,10 +6340,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="54">
+      <c r="A11" s="51">
         <v>3</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -6354,26 +6354,26 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="54">
+      <c r="A14" s="51">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -6384,8 +6384,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="21" t="s">
         <v>54</v>
       </c>
@@ -6394,10 +6394,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="54">
+      <c r="A16" s="51">
         <v>4</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="54" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -6406,16 +6406,16 @@
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="21" t="s">
         <v>98</v>
       </c>
@@ -6494,17 +6494,17 @@
     <row r="52" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6518,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/01.분석/요구사항명세서.xlsx
+++ b/01.분석/요구사항명세서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -3596,10 +3596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호, 아이디, 이름, 연락처, 주소, 이메일, 회원타입, 가입일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본정보를 등록해야 조회가 가능, 등록일 순으로 조회(기본)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3654,6 +3650,10 @@
   </si>
   <si>
     <t>번호, 이미지, 이름, 직급, 근무지역, 학력, 나이, 포트폴리오유무, 성별, 등록일, 지원상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호, 아이디, 이름, 연락처, 주소, 이메일, 인증질문, 질문답, 회원타입, 등록일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3949,6 +3949,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3985,56 +3994,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4343,76 +4343,76 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4437,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4451,12 +4451,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -4497,40 +4497,40 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="37">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="37">
+      <c r="A8" s="40">
         <v>4</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4541,26 +4541,26 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="37">
+      <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4571,26 +4571,26 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="43">
+      <c r="A14" s="46">
         <v>6</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -4601,16 +4601,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
@@ -4671,12 +4671,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -4715,10 +4715,10 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="37">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -4727,8 +4727,8 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="18" t="s">
         <v>46</v>
       </c>
@@ -4784,12 +4784,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -4806,21 +4806,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>114</v>
+      <c r="D3" s="36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="54"/>
       <c r="C4" s="19" t="s">
         <v>55</v>
@@ -4828,7 +4828,7 @@
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="19" t="s">
         <v>48</v>
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="19" t="s">
         <v>49</v>
@@ -4846,39 +4846,39 @@
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>120</v>
+      <c r="D8" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="54"/>
       <c r="C9" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="54"/>
       <c r="C10" s="19" t="s">
         <v>54</v>
@@ -4888,31 +4888,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="54"/>
       <c r="C11" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="50">
+      <c r="A12" s="49">
         <v>3</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>120</v>
+      <c r="D12" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="54"/>
       <c r="C13" s="19" t="s">
         <v>71</v>
@@ -4922,30 +4922,30 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="50">
+      <c r="A15" s="49">
         <v>3</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="19" t="s">
         <v>96</v>
       </c>
@@ -5022,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5034,12 +5034,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5056,48 +5056,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="37">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A4" s="41"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="61" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="33" t="s">
         <v>56</v>
       </c>
@@ -5106,149 +5106,149 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="33"/>
-      <c r="B11" s="61"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="37">
+      <c r="A12" s="40">
         <v>3</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="58" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
       <c r="H15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="38"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="46" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="37">
+      <c r="A18" s="40">
         <v>4</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="58" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35">
+      <c r="A20" s="38">
         <v>5</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
         <v>77</v>
       </c>
@@ -5266,6 +5266,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B20:B23"/>
@@ -5274,17 +5285,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5357,10 +5357,10 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="6" t="s">

--- a/01.분석/요구사항명세서.xlsx
+++ b/01.분석/요구사항명세서.xlsx
@@ -3653,7 +3653,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호, 아이디, 이름, 연락처, 주소, 이메일, 인증질문, 질문답, 회원타입, 등록일</t>
+    <t>번호, 아이디, 이름, 연락처, 주소, 이메일, 질문타입, 질문답, 회원타입, 등록일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4021,19 +4021,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4438,7 +4438,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5059,7 +5059,7 @@
       <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -5071,7 +5071,7 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="41"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="33" t="s">
         <v>115</v>
       </c>
@@ -5081,23 +5081,23 @@
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="41"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="58" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
       <c r="A6" s="41"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="A7" s="41"/>
-      <c r="B7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="33" t="s">
         <v>56</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -5121,17 +5121,17 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="33"/>
@@ -5143,7 +5143,7 @@
       <c r="A12" s="40">
         <v>3</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="59" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -5155,7 +5155,7 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="41"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="22" t="s">
         <v>94</v>
       </c>
@@ -5165,40 +5165,40 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="41"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="41"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="H15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="41"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="42"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="40">
         <v>4</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="59" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -5210,7 +5210,7 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="42"/>
-      <c r="B19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="27" t="s">
         <v>65</v>
       </c>
@@ -5266,11 +5266,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B8:B10"/>
@@ -5279,12 +5280,11 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.분석/요구사항명세서.xlsx
+++ b/01.분석/요구사항명세서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22575" windowHeight="6210" tabRatio="862" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -3155,7 +3155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
   <si>
     <t>관리자(서버) 공통기능 요구사항 명세</t>
   </si>
@@ -3654,6 +3654,14 @@
   </si>
   <si>
     <t>번호, 아이디, 이름, 연락처, 주소, 이메일, 질문타입, 질문답, 회원타입, 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 검증 후 비밀번호 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3846,7 +3854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3958,6 +3966,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4024,16 +4038,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4343,76 +4357,76 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4437,7 +4451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4451,12 +4465,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -4497,10 +4511,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -4511,26 +4525,26 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="40">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4541,26 +4555,26 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="40">
+      <c r="A11" s="42">
         <v>5</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -4571,26 +4585,26 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="46">
+      <c r="A14" s="48">
         <v>6</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="49" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -4601,16 +4615,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
@@ -4655,10 +4669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4671,12 +4685,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -4715,10 +4729,10 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="40">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -4727,8 +4741,8 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="18" t="s">
         <v>46</v>
       </c>
@@ -4746,13 +4760,25 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="29"/>
-      <c r="E9" s="7"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="37">
+        <v>5</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" s="29"/>
       <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="29"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4784,12 +4810,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -4806,10 +4832,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -4820,16 +4846,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="19" t="s">
         <v>48</v>
       </c>
@@ -4838,26 +4864,26 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="49">
+      <c r="A8" s="51">
         <v>2</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4868,8 +4894,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="19" t="s">
         <v>116</v>
       </c>
@@ -4878,8 +4904,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="19" t="s">
         <v>54</v>
       </c>
@@ -4888,8 +4914,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="19" t="s">
         <v>57</v>
       </c>
@@ -4898,10 +4924,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="49">
+      <c r="A12" s="51">
         <v>3</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -4912,8 +4938,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="19" t="s">
         <v>71</v>
       </c>
@@ -4922,18 +4948,18 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="49">
+      <c r="A15" s="51">
         <v>3</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -4944,8 +4970,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19" t="s">
         <v>96</v>
       </c>
@@ -5034,12 +5060,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5056,10 +5082,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="40">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -5070,8 +5096,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="33" t="s">
         <v>115</v>
       </c>
@@ -5080,24 +5106,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="33" t="s">
         <v>56</v>
       </c>
@@ -5106,7 +5132,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="46">
+      <c r="A8" s="48">
         <v>2</v>
       </c>
       <c r="B8" s="61" t="s">
@@ -5120,18 +5146,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="61"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="33"/>
@@ -5140,10 +5166,10 @@
       <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="40">
+      <c r="A12" s="42">
         <v>3</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="62" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -5154,8 +5180,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="22" t="s">
         <v>94</v>
       </c>
@@ -5164,41 +5190,41 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="58" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="41"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
       <c r="H15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="40">
+      <c r="A18" s="42">
         <v>4</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="62" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -5209,18 +5235,18 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="38">
+      <c r="A20" s="40">
         <v>5</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="41" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -5231,24 +5257,24 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="6" t="s">
         <v>77</v>
       </c>
@@ -5266,12 +5292,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B8:B10"/>
@@ -5280,11 +5305,12 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
